--- a/Code/Results/Cases/Case_1_201/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_201/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.1389467592491</v>
+        <v>20.79417744437257</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>14.12813111184981</v>
+        <v>9.04138735040676</v>
       </c>
       <c r="E2">
-        <v>21.16997933159986</v>
+        <v>11.8011012734251</v>
       </c>
       <c r="F2">
-        <v>50.08872776416992</v>
+        <v>57.43733929506016</v>
       </c>
       <c r="G2">
-        <v>2.055530224684387</v>
+        <v>3.787086984313411</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>19.47315192109415</v>
+        <v>31.55432770389527</v>
       </c>
       <c r="J2">
-        <v>10.85763970471316</v>
+        <v>8.196796425028694</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>16.48422356897829</v>
+        <v>17.98559190041663</v>
       </c>
       <c r="M2">
-        <v>18.96367007847412</v>
+        <v>22.60695363921343</v>
       </c>
       <c r="N2">
-        <v>13.12818015987189</v>
+        <v>20.91452401751551</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>18.93842025139989</v>
+        <v>20.57391262408368</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>13.02418005049759</v>
+        <v>8.719123668152823</v>
       </c>
       <c r="E3">
-        <v>19.59339517975467</v>
+        <v>11.22245571595289</v>
       </c>
       <c r="F3">
-        <v>47.71801976497753</v>
+        <v>57.23128565453276</v>
       </c>
       <c r="G3">
-        <v>2.07632492961256</v>
+        <v>3.793828923513315</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>19.64508011126237</v>
+        <v>31.68962779581675</v>
       </c>
       <c r="J3">
-        <v>10.19691933022245</v>
+        <v>7.953951839490816</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>15.55030571131773</v>
+        <v>17.85544093948653</v>
       </c>
       <c r="M3">
-        <v>17.99525822024627</v>
+        <v>22.49046686374407</v>
       </c>
       <c r="N3">
-        <v>13.4828910464942</v>
+        <v>20.99954715728993</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.1813630987314</v>
+        <v>20.44263337141837</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>12.32334827780089</v>
+        <v>8.518982885716426</v>
       </c>
       <c r="E4">
-        <v>18.58969178729932</v>
+        <v>10.85579203637742</v>
       </c>
       <c r="F4">
-        <v>46.29450425113082</v>
+        <v>57.12309779356739</v>
       </c>
       <c r="G4">
-        <v>2.08918876100501</v>
+        <v>3.798174478152341</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>19.77416025500398</v>
+        <v>31.77917511379043</v>
       </c>
       <c r="J4">
-        <v>9.779399265597364</v>
+        <v>7.799718502083307</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>14.97103289364471</v>
+        <v>17.77996660876455</v>
       </c>
       <c r="M4">
-        <v>17.39531190147666</v>
+        <v>22.42402495755564</v>
       </c>
       <c r="N4">
-        <v>13.70064505146169</v>
+        <v>21.05382993037099</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>17.86793941196958</v>
+        <v>20.39018679306658</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>12.03155972825797</v>
+        <v>8.43699609545247</v>
       </c>
       <c r="E5">
-        <v>18.17116620620591</v>
+        <v>10.70373499692437</v>
       </c>
       <c r="F5">
-        <v>45.72223057610872</v>
+        <v>57.08362414028504</v>
       </c>
       <c r="G5">
-        <v>2.094466863043507</v>
+        <v>3.799997385190803</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>19.8321627944629</v>
+        <v>31.81728811360954</v>
       </c>
       <c r="J5">
-        <v>9.606137810373685</v>
+        <v>7.735624617385644</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>14.733517476059</v>
+        <v>17.75034846591914</v>
       </c>
       <c r="M5">
-        <v>17.14957225213474</v>
+        <v>22.3982442382193</v>
       </c>
       <c r="N5">
-        <v>13.7895538647678</v>
+        <v>21.07647607422461</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>17.81560326609092</v>
+        <v>20.38154307721462</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>11.9827234302291</v>
+        <v>8.423360800648783</v>
       </c>
       <c r="E6">
-        <v>18.1010817479932</v>
+        <v>10.67833379375273</v>
       </c>
       <c r="F6">
-        <v>45.62767349864351</v>
+        <v>57.07734823920845</v>
       </c>
       <c r="G6">
-        <v>2.095345778678194</v>
+        <v>3.800303229422412</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>19.84210649490224</v>
+        <v>31.82371452996261</v>
       </c>
       <c r="J6">
-        <v>9.577176220240073</v>
+        <v>7.724908267791773</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>14.69399225447937</v>
+        <v>17.74549974719656</v>
       </c>
       <c r="M6">
-        <v>17.10869551059047</v>
+        <v>22.39404204186771</v>
       </c>
       <c r="N6">
-        <v>13.80433239252587</v>
+        <v>21.0802682707867</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.17715587172771</v>
+        <v>20.44192173424102</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>12.31943869583435</v>
+        <v>8.517878718522946</v>
       </c>
       <c r="E7">
-        <v>18.58408656095863</v>
+        <v>10.85375170892853</v>
       </c>
       <c r="F7">
-        <v>46.2867548989529</v>
+        <v>57.12254675564184</v>
       </c>
       <c r="G7">
-        <v>2.089259783079557</v>
+        <v>3.798198851381196</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>19.77492125948267</v>
+        <v>31.77968256019806</v>
       </c>
       <c r="J7">
-        <v>9.777075383676541</v>
+        <v>7.798859076227499</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>14.96783549722238</v>
+        <v>17.77956253174774</v>
       </c>
       <c r="M7">
-        <v>17.39200268718737</v>
+        <v>22.42367200549284</v>
       </c>
       <c r="N7">
-        <v>13.70184318556193</v>
+        <v>21.05413321273123</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>19.72916865353351</v>
+        <v>20.71744034986412</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>13.75199701471132</v>
+        <v>8.930824214985423</v>
       </c>
       <c r="E8">
-        <v>20.63342868757497</v>
+        <v>11.60406744567581</v>
       </c>
       <c r="F8">
-        <v>49.26442449280567</v>
+        <v>57.36249227378616</v>
       </c>
       <c r="G8">
-        <v>2.062688065717615</v>
+        <v>3.789369013856358</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>19.52722393822266</v>
+        <v>31.59963226265539</v>
       </c>
       <c r="J8">
-        <v>10.63217893725466</v>
+        <v>8.114153973744019</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>16.16340047045184</v>
+        <v>17.93980842512169</v>
       </c>
       <c r="M8">
-        <v>18.63089455935219</v>
+        <v>22.56574517120109</v>
       </c>
       <c r="N8">
-        <v>13.25061057216477</v>
+        <v>20.94341041247094</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>22.6547634436063</v>
+        <v>21.28672384047691</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>16.40095469098693</v>
+        <v>9.716895678532142</v>
       </c>
       <c r="E9">
-        <v>24.39829922601601</v>
+        <v>12.97706305062472</v>
       </c>
       <c r="F9">
-        <v>55.38342466466762</v>
+        <v>57.97797858731014</v>
       </c>
       <c r="G9">
-        <v>2.010695873804744</v>
+        <v>3.773676008539018</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>19.25488727969612</v>
+        <v>31.29817749112257</v>
       </c>
       <c r="J9">
-        <v>12.22438127205935</v>
+        <v>8.68995590254276</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>18.61593761368536</v>
+        <v>18.28820666869341</v>
       </c>
       <c r="M9">
-        <v>21.22356812985096</v>
+        <v>22.88383499013241</v>
       </c>
       <c r="N9">
-        <v>12.35561419523309</v>
+        <v>20.74263892744421</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>24.92228518110543</v>
+        <v>21.71925506777001</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>18.28825699377722</v>
+        <v>10.27315504747319</v>
       </c>
       <c r="E10">
-        <v>27.0606044392021</v>
+        <v>14.02992524221436</v>
       </c>
       <c r="F10">
-        <v>60.11211512318012</v>
+        <v>58.51749130059397</v>
       </c>
       <c r="G10">
-        <v>1.97143832350152</v>
+        <v>3.763118428879909</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>19.22926729399433</v>
+        <v>31.10854512051655</v>
       </c>
       <c r="J10">
-        <v>13.36074881438699</v>
+        <v>9.084952400392872</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>20.6385164720902</v>
+        <v>18.56345067845115</v>
       </c>
       <c r="M10">
-        <v>23.46686439657503</v>
+        <v>23.14037908281028</v>
       </c>
       <c r="N10">
-        <v>11.67489842741964</v>
+        <v>20.60491152080493</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>25.93057813474807</v>
+        <v>21.91838603907587</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>19.14593189503739</v>
+        <v>10.52038842196682</v>
       </c>
       <c r="E11">
-        <v>28.26485109888141</v>
+        <v>14.51174450410116</v>
       </c>
       <c r="F11">
-        <v>62.33848402751906</v>
+        <v>58.78153726247359</v>
       </c>
       <c r="G11">
-        <v>1.953003472220931</v>
+        <v>3.758522934662111</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>19.26797651502974</v>
+        <v>31.02927617707964</v>
       </c>
       <c r="J11">
-        <v>13.87651846637172</v>
+        <v>9.258181797125069</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>21.54876146821332</v>
+        <v>18.69249032627149</v>
       </c>
       <c r="M11">
-        <v>24.46899926487478</v>
+        <v>23.26175448996871</v>
       </c>
       <c r="N11">
-        <v>11.35507545799534</v>
+        <v>20.54433760217839</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>26.30989551612188</v>
+        <v>21.99407032911045</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>19.47194142588792</v>
+        <v>10.61308814642016</v>
       </c>
       <c r="E12">
-        <v>28.72166572635764</v>
+        <v>14.69019916671644</v>
       </c>
       <c r="F12">
-        <v>63.19551023775099</v>
+        <v>58.88416279403265</v>
       </c>
       <c r="G12">
-        <v>1.945900373457888</v>
+        <v>3.756812248150441</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>19.29119133077958</v>
+        <v>31.0002724779213</v>
       </c>
       <c r="J12">
-        <v>14.07237704609852</v>
+        <v>9.322824079717291</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>21.8931619846225</v>
+        <v>18.74187267629946</v>
       </c>
       <c r="M12">
-        <v>24.8469229816589</v>
+        <v>23.30836118953837</v>
       </c>
       <c r="N12">
-        <v>11.23193036325542</v>
+        <v>20.52169555084698</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>26.228297838416</v>
+        <v>21.97775901242171</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>19.40164895586079</v>
+        <v>10.59316588219547</v>
       </c>
       <c r="E13">
-        <v>28.62321316877507</v>
+        <v>14.65194331616295</v>
       </c>
       <c r="F13">
-        <v>63.0102515556613</v>
+        <v>58.86194396546055</v>
       </c>
       <c r="G13">
-        <v>1.947436342439225</v>
+        <v>3.75717936613768</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>19.28578702081683</v>
+        <v>31.00647373188242</v>
       </c>
       <c r="J13">
-        <v>14.03015711882641</v>
+        <v>9.308945125412585</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>21.81898046536733</v>
+        <v>18.73121480587919</v>
       </c>
       <c r="M13">
-        <v>24.76557932689738</v>
+        <v>23.29829538810541</v>
       </c>
       <c r="N13">
-        <v>11.25855328469592</v>
+        <v>20.52655880565471</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>25.96182921590365</v>
+        <v>21.92460742558023</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>19.17271912357754</v>
+        <v>10.52803382404183</v>
       </c>
       <c r="E14">
-        <v>28.30240554435743</v>
+        <v>14.52650611717183</v>
       </c>
       <c r="F14">
-        <v>62.40869049001759</v>
+        <v>58.78992772656756</v>
       </c>
       <c r="G14">
-        <v>1.952421812624838</v>
+        <v>3.758381605220463</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>19.26970637765511</v>
+        <v>31.02686966355737</v>
       </c>
       <c r="J14">
-        <v>13.89261596455986</v>
+        <v>9.26351926053766</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>21.57709366004518</v>
+        <v>18.69654285532116</v>
       </c>
       <c r="M14">
-        <v>24.50011532155052</v>
+        <v>23.26557609605541</v>
       </c>
       <c r="N14">
-        <v>11.34498889225694</v>
+        <v>20.54246891230944</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>25.79831294843425</v>
+        <v>21.89208484320707</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>19.03269966659796</v>
+        <v>10.48801607515597</v>
       </c>
       <c r="E15">
-        <v>28.10606655097704</v>
+        <v>14.44915194564705</v>
       </c>
       <c r="F15">
-        <v>62.04214582072967</v>
+        <v>58.74615783325217</v>
       </c>
       <c r="G15">
-        <v>1.955458275752112</v>
+        <v>3.759121848735167</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>19.26101466030556</v>
+        <v>31.03949501153059</v>
       </c>
       <c r="J15">
-        <v>13.8084645175531</v>
+        <v>9.235569357240173</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>21.42893237225427</v>
+        <v>18.67537173034231</v>
       </c>
       <c r="M15">
-        <v>24.33734460330218</v>
+        <v>23.24561768109305</v>
       </c>
       <c r="N15">
-        <v>11.39764839273161</v>
+        <v>20.55225276822145</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>24.85598972719664</v>
+        <v>21.70628368267207</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>18.23229534224856</v>
+        <v>10.25687318399132</v>
       </c>
       <c r="E16">
-        <v>26.98190683458411</v>
+        <v>13.9978763501128</v>
       </c>
       <c r="F16">
-        <v>59.96837348290114</v>
+        <v>58.50060661546893</v>
       </c>
       <c r="G16">
-        <v>1.972628373287638</v>
+        <v>3.763422901788345</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>19.22785717169839</v>
+        <v>31.1138669625275</v>
       </c>
       <c r="J16">
-        <v>13.32707478362324</v>
+        <v>9.073499103764622</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>20.57892084115587</v>
+        <v>18.55509190992372</v>
       </c>
       <c r="M16">
-        <v>23.40108853354525</v>
+        <v>23.13253861647324</v>
       </c>
       <c r="N16">
-        <v>11.69554956546752</v>
+        <v>20.60891174911508</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>24.27248066778512</v>
+        <v>21.59286277296454</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>17.74189761937466</v>
+        <v>10.1135210632649</v>
       </c>
       <c r="E17">
-        <v>26.29163054276762</v>
+        <v>13.71388667129672</v>
       </c>
       <c r="F17">
-        <v>58.71735007828307</v>
+        <v>58.3547107252278</v>
       </c>
       <c r="G17">
-        <v>1.982989379526659</v>
+        <v>3.766114337625082</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>19.22126790458396</v>
+        <v>31.16128897505657</v>
       </c>
       <c r="J17">
-        <v>13.03190186419225</v>
+        <v>8.972399953936026</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>20.05565140800816</v>
+        <v>18.48226195045063</v>
       </c>
       <c r="M17">
-        <v>22.8227020533996</v>
+        <v>23.06434582577894</v>
       </c>
       <c r="N17">
-        <v>11.87533775248454</v>
+        <v>20.64420056199183</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>23.93461437491573</v>
+        <v>21.52785294435244</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>17.45965265578031</v>
+        <v>10.03052615274379</v>
       </c>
       <c r="E18">
-        <v>25.89382639664484</v>
+        <v>13.54791029570702</v>
       </c>
       <c r="F18">
-        <v>58.00463688688728</v>
+        <v>58.27255054657755</v>
       </c>
       <c r="G18">
-        <v>1.988897395483269</v>
+        <v>3.767681899245607</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>19.22212591283837</v>
+        <v>31.18922286172149</v>
       </c>
       <c r="J18">
-        <v>12.86196253657591</v>
+        <v>8.913644103525845</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>19.75367188158196</v>
+        <v>18.4407345970444</v>
       </c>
       <c r="M18">
-        <v>22.48822324932532</v>
+        <v>23.02556462612632</v>
       </c>
       <c r="N18">
-        <v>11.97783257330724</v>
+        <v>20.66469361564045</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>23.81981103491039</v>
+        <v>21.50588262900336</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>17.36402305506528</v>
+        <v>10.00233512526097</v>
       </c>
       <c r="E19">
-        <v>25.75895728455573</v>
+        <v>13.4912607053232</v>
       </c>
       <c r="F19">
-        <v>57.764421706141</v>
+        <v>58.2450351299203</v>
       </c>
       <c r="G19">
-        <v>1.990889952047083</v>
+        <v>3.768216009204129</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>19.22317897849178</v>
+        <v>31.19879357499934</v>
       </c>
       <c r="J19">
-        <v>12.80437750310794</v>
+        <v>8.893647143812748</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>19.65122427198699</v>
+        <v>18.42673739644045</v>
       </c>
       <c r="M19">
-        <v>22.37463611093975</v>
+        <v>23.01251061978739</v>
       </c>
       <c r="N19">
-        <v>12.01239353747424</v>
+        <v>20.67166594117684</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>24.3348235055127</v>
+        <v>21.60491359987276</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>17.79411146205133</v>
+        <v>10.12883795421058</v>
       </c>
       <c r="E20">
-        <v>26.36518060656932</v>
+        <v>13.74439021771613</v>
       </c>
       <c r="F20">
-        <v>58.8497963343223</v>
+        <v>58.37006020180062</v>
       </c>
       <c r="G20">
-        <v>1.981891998342846</v>
+        <v>3.765825811490137</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>19.22147963881622</v>
+        <v>31.15617266503249</v>
       </c>
       <c r="J20">
-        <v>13.06333596899078</v>
+        <v>8.983225089869954</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>20.11145159794301</v>
+        <v>18.48997754042393</v>
       </c>
       <c r="M20">
-        <v>22.88445235690675</v>
+        <v>23.07155956698792</v>
       </c>
       <c r="N20">
-        <v>11.85629731786761</v>
+        <v>20.64042375816089</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>26.04015743574973</v>
+        <v>21.94021229911135</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>19.2399152857179</v>
+        <v>10.54719035333031</v>
       </c>
       <c r="E21">
-        <v>28.39659619024507</v>
+        <v>14.56345844774591</v>
       </c>
       <c r="F21">
-        <v>62.58497430560767</v>
+        <v>58.8110094209998</v>
       </c>
       <c r="G21">
-        <v>1.950961148015144</v>
+        <v>3.758027679235457</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>19.27418553326579</v>
+        <v>31.020851308893</v>
       </c>
       <c r="J21">
-        <v>13.93299341170576</v>
+        <v>9.276888084517788</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>21.64813889043274</v>
+        <v>18.70671306030102</v>
       </c>
       <c r="M21">
-        <v>24.57812082199518</v>
+        <v>23.27516927850865</v>
       </c>
       <c r="N21">
-        <v>11.31966127590218</v>
+        <v>20.53778771941147</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>27.14070760149027</v>
+        <v>22.16093919352265</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>20.19293558539285</v>
+        <v>10.81519976441923</v>
       </c>
       <c r="E22">
-        <v>29.73011833799769</v>
+        <v>15.07546300382693</v>
       </c>
       <c r="F22">
-        <v>65.19161644936975</v>
+        <v>59.11454353816741</v>
       </c>
       <c r="G22">
-        <v>1.930005962646431</v>
+        <v>3.75310313200305</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>19.35934195252909</v>
+        <v>30.93832351467926</v>
       </c>
       <c r="J22">
-        <v>14.50507581942202</v>
+        <v>9.463231481019932</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>22.65155863796629</v>
+        <v>18.85136474949556</v>
       </c>
       <c r="M22">
-        <v>25.67667166288121</v>
+        <v>23.41198297195388</v>
       </c>
       <c r="N22">
-        <v>10.95667927741022</v>
+        <v>20.47243291731922</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>26.55425362052393</v>
+        <v>22.04300836130045</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>19.68298816706309</v>
+        <v>10.67267882009528</v>
       </c>
       <c r="E23">
-        <v>29.01711696073211</v>
+        <v>14.80432176470846</v>
       </c>
       <c r="F23">
-        <v>63.75324231160063</v>
+        <v>58.95115200635467</v>
       </c>
       <c r="G23">
-        <v>1.941274161310004</v>
+        <v>3.755715807976117</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>19.30873832312431</v>
+        <v>30.98182653998311</v>
       </c>
       <c r="J23">
-        <v>14.19910340736085</v>
+        <v>9.364295522732862</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>22.11562965193579</v>
+        <v>18.77389777906567</v>
       </c>
       <c r="M23">
-        <v>25.0906755394498</v>
+        <v>23.33862978032901</v>
       </c>
       <c r="N23">
-        <v>11.15176689078628</v>
+        <v>20.50715726834874</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>24.30664584095038</v>
+        <v>21.59946480149246</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>17.77050664178403</v>
+        <v>10.12191498729602</v>
       </c>
       <c r="E24">
-        <v>26.33193172422699</v>
+        <v>13.73060799741336</v>
       </c>
       <c r="F24">
-        <v>58.78989730288511</v>
+        <v>58.36311535140479</v>
       </c>
       <c r="G24">
-        <v>1.982388273153147</v>
+        <v>3.76595619115709</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>19.22136953700464</v>
+        <v>31.15848366141931</v>
       </c>
       <c r="J24">
-        <v>13.04912541001784</v>
+        <v>8.978333014207465</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>20.08622797848206</v>
+        <v>18.48648824960017</v>
       </c>
       <c r="M24">
-        <v>22.85654121618208</v>
+        <v>23.06829691265557</v>
       </c>
       <c r="N24">
-        <v>11.86490816037171</v>
+        <v>20.64213061227856</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.85099542180943</v>
+        <v>21.1299602606051</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>15.69799498828179</v>
+        <v>9.507530010213609</v>
       </c>
       <c r="E25">
-        <v>23.40237576514869</v>
+        <v>12.61718298662012</v>
       </c>
       <c r="F25">
-        <v>53.69329184899652</v>
+        <v>57.79603886122604</v>
       </c>
       <c r="G25">
-        <v>2.024850720313393</v>
+        <v>3.777749450831784</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>19.30158180192834</v>
+        <v>31.3741643063242</v>
       </c>
       <c r="J25">
-        <v>11.8011504777639</v>
+        <v>8.538971513620213</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>17.85642577831133</v>
+        <v>18.19045214965039</v>
       </c>
       <c r="M25">
-        <v>20.37689283984187</v>
+        <v>22.79367647109045</v>
       </c>
       <c r="N25">
-        <v>12.60036207936019</v>
+        <v>20.79522167326294</v>
       </c>
       <c r="O25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_201/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_201/res_line/loading_percent.xlsx
@@ -421,43 +421,43 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.79417744437257</v>
+        <v>20.1389467592491</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>9.04138735040676</v>
+        <v>14.12813111184985</v>
       </c>
       <c r="E2">
-        <v>11.8011012734251</v>
+        <v>21.16997933159995</v>
       </c>
       <c r="F2">
-        <v>57.43733929506016</v>
+        <v>50.08872776416998</v>
       </c>
       <c r="G2">
-        <v>3.787086984313411</v>
+        <v>2.055530224684255</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>31.55432770389527</v>
+        <v>19.47315192109411</v>
       </c>
       <c r="J2">
-        <v>8.196796425028694</v>
+        <v>10.85763970471326</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>17.98559190041663</v>
+        <v>16.48422356897829</v>
       </c>
       <c r="M2">
-        <v>22.60695363921343</v>
+        <v>18.96367007847414</v>
       </c>
       <c r="N2">
-        <v>20.91452401751551</v>
+        <v>13.12818015987186</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -468,43 +468,43 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>20.57391262408368</v>
+        <v>18.93842025139993</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>8.719123668152823</v>
+        <v>13.02418005049764</v>
       </c>
       <c r="E3">
-        <v>11.22245571595289</v>
+        <v>19.59339517975467</v>
       </c>
       <c r="F3">
-        <v>57.23128565453276</v>
+        <v>47.71801976497763</v>
       </c>
       <c r="G3">
-        <v>3.793828923513315</v>
+        <v>2.07632492961281</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>31.68962779581675</v>
+        <v>19.64508011126247</v>
       </c>
       <c r="J3">
-        <v>7.953951839490816</v>
+        <v>10.19691933022243</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>17.85544093948653</v>
+        <v>15.55030571131778</v>
       </c>
       <c r="M3">
-        <v>22.49046686374407</v>
+        <v>17.99525822024632</v>
       </c>
       <c r="N3">
-        <v>20.99954715728993</v>
+        <v>13.48289104649424</v>
       </c>
       <c r="O3">
         <v>0</v>
@@ -515,43 +515,43 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>20.44263337141837</v>
+        <v>18.18136309873142</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>8.518982885716426</v>
+        <v>12.32334827780086</v>
       </c>
       <c r="E4">
-        <v>10.85579203637742</v>
+        <v>18.5896917872994</v>
       </c>
       <c r="F4">
-        <v>57.12309779356739</v>
+        <v>46.29450425113086</v>
       </c>
       <c r="G4">
-        <v>3.798174478152341</v>
+        <v>2.089188761005015</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>31.77917511379043</v>
+        <v>19.77416025500393</v>
       </c>
       <c r="J4">
-        <v>7.799718502083307</v>
+        <v>9.779399265597444</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>17.77996660876455</v>
+        <v>14.97103289364473</v>
       </c>
       <c r="M4">
-        <v>22.42402495755564</v>
+        <v>17.39531190147667</v>
       </c>
       <c r="N4">
-        <v>21.05382993037099</v>
+        <v>13.70064505146166</v>
       </c>
       <c r="O4">
         <v>0</v>
@@ -562,43 +562,43 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>20.39018679306658</v>
+        <v>17.86793941196957</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>8.43699609545247</v>
+        <v>12.03155972825803</v>
       </c>
       <c r="E5">
-        <v>10.70373499692437</v>
+        <v>18.17116620620595</v>
       </c>
       <c r="F5">
-        <v>57.08362414028504</v>
+        <v>45.72223057610869</v>
       </c>
       <c r="G5">
-        <v>3.799997385190803</v>
+        <v>2.094466863043642</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>31.81728811360954</v>
+        <v>19.8321627944629</v>
       </c>
       <c r="J5">
-        <v>7.735624617385644</v>
+        <v>9.606137810373717</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>17.75034846591914</v>
+        <v>14.73351747605899</v>
       </c>
       <c r="M5">
-        <v>22.3982442382193</v>
+        <v>17.14957225213474</v>
       </c>
       <c r="N5">
-        <v>21.07647607422461</v>
+        <v>13.7895538647678</v>
       </c>
       <c r="O5">
         <v>0</v>
@@ -609,43 +609,43 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>20.38154307721462</v>
+        <v>17.815603266091</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>8.423360800648783</v>
+        <v>11.98272343022905</v>
       </c>
       <c r="E6">
-        <v>10.67833379375273</v>
+        <v>18.10108174799319</v>
       </c>
       <c r="F6">
-        <v>57.07734823920845</v>
+        <v>45.62767349864362</v>
       </c>
       <c r="G6">
-        <v>3.800303229422412</v>
+        <v>2.095345778678196</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>31.82371452996261</v>
+        <v>19.84210649490237</v>
       </c>
       <c r="J6">
-        <v>7.724908267791773</v>
+        <v>9.577176220240071</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>17.74549974719656</v>
+        <v>14.69399225447938</v>
       </c>
       <c r="M6">
-        <v>22.39404204186771</v>
+        <v>17.10869551059049</v>
       </c>
       <c r="N6">
-        <v>21.0802682707867</v>
+        <v>13.80433239252594</v>
       </c>
       <c r="O6">
         <v>0</v>
@@ -656,43 +656,43 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>20.44192173424102</v>
+        <v>18.17715587172773</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>8.517878718522946</v>
+        <v>12.3194386958343</v>
       </c>
       <c r="E7">
-        <v>10.85375170892853</v>
+        <v>18.58408656095867</v>
       </c>
       <c r="F7">
-        <v>57.12254675564184</v>
+        <v>46.28675489895283</v>
       </c>
       <c r="G7">
-        <v>3.798198851381196</v>
+        <v>2.089259783079821</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>31.77968256019806</v>
+        <v>19.77492125948264</v>
       </c>
       <c r="J7">
-        <v>7.798859076227499</v>
+        <v>9.777075383676602</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>17.77956253174774</v>
+        <v>14.96783549722236</v>
       </c>
       <c r="M7">
-        <v>22.42367200549284</v>
+        <v>17.39200268718737</v>
       </c>
       <c r="N7">
-        <v>21.05413321273123</v>
+        <v>13.7018431855619</v>
       </c>
       <c r="O7">
         <v>0</v>
@@ -703,43 +703,43 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.71744034986412</v>
+        <v>19.72916865353356</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>8.930824214985423</v>
+        <v>13.7519970147112</v>
       </c>
       <c r="E8">
-        <v>11.60406744567581</v>
+        <v>20.63342868757497</v>
       </c>
       <c r="F8">
-        <v>57.36249227378616</v>
+        <v>49.26442449280582</v>
       </c>
       <c r="G8">
-        <v>3.789369013856358</v>
+        <v>2.062688065717613</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>31.59963226265539</v>
+        <v>19.52722393822282</v>
       </c>
       <c r="J8">
-        <v>8.114153973744019</v>
+        <v>10.63217893725467</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>17.93980842512169</v>
+        <v>16.16340047045187</v>
       </c>
       <c r="M8">
-        <v>22.56574517120109</v>
+        <v>18.63089455935225</v>
       </c>
       <c r="N8">
-        <v>20.94341041247094</v>
+        <v>13.25061057216484</v>
       </c>
       <c r="O8">
         <v>0</v>
@@ -750,43 +750,43 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.28672384047691</v>
+        <v>22.65476344360627</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>9.716895678532142</v>
+        <v>16.40095469098694</v>
       </c>
       <c r="E9">
-        <v>12.97706305062472</v>
+        <v>24.39829922601596</v>
       </c>
       <c r="F9">
-        <v>57.97797858731014</v>
+        <v>55.38342466466762</v>
       </c>
       <c r="G9">
-        <v>3.773676008539018</v>
+        <v>2.010695873804606</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>31.29817749112257</v>
+        <v>19.2548872796962</v>
       </c>
       <c r="J9">
-        <v>8.68995590254276</v>
+        <v>12.22438127205929</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>18.28820666869341</v>
+        <v>18.61593761368536</v>
       </c>
       <c r="M9">
-        <v>22.88383499013241</v>
+        <v>21.22356812985095</v>
       </c>
       <c r="N9">
-        <v>20.74263892744421</v>
+        <v>12.35561419523313</v>
       </c>
       <c r="O9">
         <v>0</v>
@@ -797,43 +797,43 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>21.71925506777001</v>
+        <v>24.92228518110541</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>10.27315504747319</v>
+        <v>18.2882569937772</v>
       </c>
       <c r="E10">
-        <v>14.02992524221436</v>
+        <v>27.06060443920205</v>
       </c>
       <c r="F10">
-        <v>58.51749130059397</v>
+        <v>60.11211512318015</v>
       </c>
       <c r="G10">
-        <v>3.763118428879909</v>
+        <v>1.971438323501385</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>31.10854512051655</v>
+        <v>19.22926729399439</v>
       </c>
       <c r="J10">
-        <v>9.084952400392872</v>
+        <v>13.36074881438701</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>18.56345067845115</v>
+        <v>20.63851647209017</v>
       </c>
       <c r="M10">
-        <v>23.14037908281028</v>
+        <v>23.46686439657501</v>
       </c>
       <c r="N10">
-        <v>20.60491152080493</v>
+        <v>11.67489842741964</v>
       </c>
       <c r="O10">
         <v>0</v>
@@ -844,43 +844,43 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>21.91838603907587</v>
+        <v>25.93057813474812</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>10.52038842196682</v>
+        <v>19.14593189503745</v>
       </c>
       <c r="E11">
-        <v>14.51174450410116</v>
+        <v>28.26485109888142</v>
       </c>
       <c r="F11">
-        <v>58.78153726247359</v>
+        <v>62.33848402751923</v>
       </c>
       <c r="G11">
-        <v>3.758522934662111</v>
+        <v>1.953003472220927</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>31.02927617707964</v>
+        <v>19.26797651502975</v>
       </c>
       <c r="J11">
-        <v>9.258181797125069</v>
+        <v>13.87651846637175</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>18.69249032627149</v>
+        <v>21.54876146821336</v>
       </c>
       <c r="M11">
-        <v>23.26175448996871</v>
+        <v>24.46899926487487</v>
       </c>
       <c r="N11">
-        <v>20.54433760217839</v>
+        <v>11.35507545799532</v>
       </c>
       <c r="O11">
         <v>0</v>
@@ -891,43 +891,43 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>21.99407032911045</v>
+        <v>26.30989551612184</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>10.61308814642016</v>
+        <v>19.47194142588789</v>
       </c>
       <c r="E12">
-        <v>14.69019916671644</v>
+        <v>28.7216657263576</v>
       </c>
       <c r="F12">
-        <v>58.88416279403265</v>
+        <v>63.19551023775099</v>
       </c>
       <c r="G12">
-        <v>3.756812248150441</v>
+        <v>1.945900373458015</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>31.0002724779213</v>
+        <v>19.29119133077965</v>
       </c>
       <c r="J12">
-        <v>9.322824079717291</v>
+        <v>14.07237704609847</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>18.74187267629946</v>
+        <v>21.89316198462245</v>
       </c>
       <c r="M12">
-        <v>23.30836118953837</v>
+        <v>24.84692298165883</v>
       </c>
       <c r="N12">
-        <v>20.52169555084698</v>
+        <v>11.23193036325542</v>
       </c>
       <c r="O12">
         <v>0</v>
@@ -938,43 +938,43 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>21.97775901242171</v>
+        <v>26.22829783841595</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>10.59316588219547</v>
+        <v>19.40164895586087</v>
       </c>
       <c r="E13">
-        <v>14.65194331616295</v>
+        <v>28.62321316877517</v>
       </c>
       <c r="F13">
-        <v>58.86194396546055</v>
+        <v>63.01025155566133</v>
       </c>
       <c r="G13">
-        <v>3.75717936613768</v>
+        <v>1.947436342439091</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>31.00647373188242</v>
+        <v>19.28578702081684</v>
       </c>
       <c r="J13">
-        <v>9.308945125412585</v>
+        <v>14.03015711882647</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>18.73121480587919</v>
+        <v>21.81898046536739</v>
       </c>
       <c r="M13">
-        <v>23.29829538810541</v>
+        <v>24.76557932689738</v>
       </c>
       <c r="N13">
-        <v>20.52655880565471</v>
+        <v>11.25855328469585</v>
       </c>
       <c r="O13">
         <v>0</v>
@@ -985,43 +985,43 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>21.92460742558023</v>
+        <v>25.96182921590373</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>10.52803382404183</v>
+        <v>19.17271912357764</v>
       </c>
       <c r="E14">
-        <v>14.52650611717183</v>
+        <v>28.30240554435759</v>
       </c>
       <c r="F14">
-        <v>58.78992772656756</v>
+        <v>62.40869049001769</v>
       </c>
       <c r="G14">
-        <v>3.758381605220463</v>
+        <v>1.952421812624569</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>31.02686966355737</v>
+        <v>19.26970637765511</v>
       </c>
       <c r="J14">
-        <v>9.26351926053766</v>
+        <v>13.89261596455995</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>18.69654285532116</v>
+        <v>21.57709366004527</v>
       </c>
       <c r="M14">
-        <v>23.26557609605541</v>
+        <v>24.50011532155062</v>
       </c>
       <c r="N14">
-        <v>20.54246891230944</v>
+        <v>11.34498889225694</v>
       </c>
       <c r="O14">
         <v>0</v>
@@ -1032,43 +1032,43 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>21.89208484320707</v>
+        <v>25.79831294843417</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>10.48801607515597</v>
+        <v>19.03269966659781</v>
       </c>
       <c r="E15">
-        <v>14.44915194564705</v>
+        <v>28.10606655097684</v>
       </c>
       <c r="F15">
-        <v>58.74615783325217</v>
+        <v>62.04214582072948</v>
       </c>
       <c r="G15">
-        <v>3.759121848735167</v>
+        <v>1.955458275752119</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>31.03949501153059</v>
+        <v>19.26101466030562</v>
       </c>
       <c r="J15">
-        <v>9.235569357240173</v>
+        <v>13.80846451755298</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>18.67537173034231</v>
+        <v>21.42893237225416</v>
       </c>
       <c r="M15">
-        <v>23.24561768109305</v>
+        <v>24.33734460330205</v>
       </c>
       <c r="N15">
-        <v>20.55225276822145</v>
+        <v>11.39764839273164</v>
       </c>
       <c r="O15">
         <v>0</v>
@@ -1079,43 +1079,43 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>21.70628368267207</v>
+        <v>24.85598972719671</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>10.25687318399132</v>
+        <v>18.23229534224863</v>
       </c>
       <c r="E16">
-        <v>13.9978763501128</v>
+        <v>26.98190683458412</v>
       </c>
       <c r="F16">
-        <v>58.50060661546893</v>
+        <v>59.96837348290119</v>
       </c>
       <c r="G16">
-        <v>3.763422901788345</v>
+        <v>1.972628373287638</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>31.1138669625275</v>
+        <v>19.22785717169824</v>
       </c>
       <c r="J16">
-        <v>9.073499103764622</v>
+        <v>13.32707478362322</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>18.55509190992372</v>
+        <v>20.57892084115594</v>
       </c>
       <c r="M16">
-        <v>23.13253861647324</v>
+        <v>23.40108853354534</v>
       </c>
       <c r="N16">
-        <v>20.60891174911508</v>
+        <v>11.69554956546739</v>
       </c>
       <c r="O16">
         <v>0</v>
@@ -1126,43 +1126,43 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.59286277296454</v>
+        <v>24.27248066778508</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>10.1135210632649</v>
+        <v>17.74189761937452</v>
       </c>
       <c r="E17">
-        <v>13.71388667129672</v>
+        <v>26.29163054276745</v>
       </c>
       <c r="F17">
-        <v>58.3547107252278</v>
+        <v>58.71735007828309</v>
       </c>
       <c r="G17">
-        <v>3.766114337625082</v>
+        <v>1.982989379526667</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>31.16128897505657</v>
+        <v>19.22126790458406</v>
       </c>
       <c r="J17">
-        <v>8.972399953936026</v>
+        <v>13.03190186419213</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>18.48226195045063</v>
+        <v>20.0556514080081</v>
       </c>
       <c r="M17">
-        <v>23.06434582577894</v>
+        <v>22.82270205339956</v>
       </c>
       <c r="N17">
-        <v>20.64420056199183</v>
+        <v>11.87533775248464</v>
       </c>
       <c r="O17">
         <v>0</v>
@@ -1173,43 +1173,43 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.52785294435244</v>
+        <v>23.93461437491573</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>10.03052615274379</v>
+        <v>17.45965265578027</v>
       </c>
       <c r="E18">
-        <v>13.54791029570702</v>
+        <v>25.89382639664484</v>
       </c>
       <c r="F18">
-        <v>58.27255054657755</v>
+        <v>58.00463688688732</v>
       </c>
       <c r="G18">
-        <v>3.767681899245607</v>
+        <v>1.988897395483272</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>31.18922286172149</v>
+        <v>19.22212591283847</v>
       </c>
       <c r="J18">
-        <v>8.913644103525845</v>
+        <v>12.86196253657597</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>18.4407345970444</v>
+        <v>19.75367188158192</v>
       </c>
       <c r="M18">
-        <v>23.02556462612632</v>
+        <v>22.4882232493253</v>
       </c>
       <c r="N18">
-        <v>20.66469361564045</v>
+        <v>11.97783257330724</v>
       </c>
       <c r="O18">
         <v>0</v>
@@ -1220,43 +1220,43 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.50588262900336</v>
+        <v>23.81981103491041</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>10.00233512526097</v>
+        <v>17.36402305506531</v>
       </c>
       <c r="E19">
-        <v>13.4912607053232</v>
+        <v>25.75895728455574</v>
       </c>
       <c r="F19">
-        <v>58.2450351299203</v>
+        <v>57.76442170614099</v>
       </c>
       <c r="G19">
-        <v>3.768216009204129</v>
+        <v>1.99088995204709</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>31.19879357499934</v>
+        <v>19.22317897849173</v>
       </c>
       <c r="J19">
-        <v>8.893647143812748</v>
+        <v>12.80437750310795</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>18.42673739644045</v>
+        <v>19.65122427198699</v>
       </c>
       <c r="M19">
-        <v>23.01251061978739</v>
+        <v>22.37463611093978</v>
       </c>
       <c r="N19">
-        <v>20.67166594117684</v>
+        <v>12.01239353747418</v>
       </c>
       <c r="O19">
         <v>0</v>
@@ -1267,43 +1267,43 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>21.60491359987276</v>
+        <v>24.33482350551274</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>10.12883795421058</v>
+        <v>17.79411146205144</v>
       </c>
       <c r="E20">
-        <v>13.74439021771613</v>
+        <v>26.36518060656947</v>
       </c>
       <c r="F20">
-        <v>58.37006020180062</v>
+        <v>58.8497963343224</v>
       </c>
       <c r="G20">
-        <v>3.765825811490137</v>
+        <v>1.981891998342721</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>31.15617266503249</v>
+        <v>19.22147963881618</v>
       </c>
       <c r="J20">
-        <v>8.983225089869954</v>
+        <v>13.0633359689909</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>18.48997754042393</v>
+        <v>20.11145159794307</v>
       </c>
       <c r="M20">
-        <v>23.07155956698792</v>
+        <v>22.8844523569068</v>
       </c>
       <c r="N20">
-        <v>20.64042375816089</v>
+        <v>11.85629731786754</v>
       </c>
       <c r="O20">
         <v>0</v>
@@ -1314,43 +1314,43 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>21.94021229911135</v>
+        <v>26.04015743574971</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>10.54719035333031</v>
+        <v>19.2399152857179</v>
       </c>
       <c r="E21">
-        <v>14.56345844774591</v>
+        <v>28.39659619024509</v>
       </c>
       <c r="F21">
-        <v>58.8110094209998</v>
+        <v>62.58497430560775</v>
       </c>
       <c r="G21">
-        <v>3.758027679235457</v>
+        <v>1.950961148015275</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>31.020851308893</v>
+        <v>19.27418553326579</v>
       </c>
       <c r="J21">
-        <v>9.276888084517788</v>
+        <v>13.93299341170577</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>18.70671306030102</v>
+        <v>21.64813889043278</v>
       </c>
       <c r="M21">
-        <v>23.27516927850865</v>
+        <v>24.57812082199521</v>
       </c>
       <c r="N21">
-        <v>20.53778771941147</v>
+        <v>11.31966127590212</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -1361,43 +1361,43 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>22.16093919352265</v>
+        <v>27.14070760149032</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>10.81519976441923</v>
+        <v>20.19293558539294</v>
       </c>
       <c r="E22">
-        <v>15.07546300382693</v>
+        <v>29.73011833799768</v>
       </c>
       <c r="F22">
-        <v>59.11454353816741</v>
+        <v>65.19161644936983</v>
       </c>
       <c r="G22">
-        <v>3.75310313200305</v>
+        <v>1.930005962646431</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>30.93832351467926</v>
+        <v>19.35934195252899</v>
       </c>
       <c r="J22">
-        <v>9.463231481019932</v>
+        <v>14.50507581942196</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>18.85136474949556</v>
+        <v>22.65155863796635</v>
       </c>
       <c r="M22">
-        <v>23.41198297195388</v>
+        <v>25.67667166288129</v>
       </c>
       <c r="N22">
-        <v>20.47243291731922</v>
+        <v>10.95667927741012</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -1408,43 +1408,43 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>22.04300836130045</v>
+        <v>26.55425362052393</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>10.67267882009528</v>
+        <v>19.68298816706317</v>
       </c>
       <c r="E23">
-        <v>14.80432176470846</v>
+        <v>29.01711696073218</v>
       </c>
       <c r="F23">
-        <v>58.95115200635467</v>
+        <v>63.75324231160067</v>
       </c>
       <c r="G23">
-        <v>3.755715807976117</v>
+        <v>1.94127416131</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>30.98182653998311</v>
+        <v>19.30873832312436</v>
       </c>
       <c r="J23">
-        <v>9.364295522732862</v>
+        <v>14.19910340736095</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>18.77389777906567</v>
+        <v>22.11562965193582</v>
       </c>
       <c r="M23">
-        <v>23.33862978032901</v>
+        <v>25.09067553944979</v>
       </c>
       <c r="N23">
-        <v>20.50715726834874</v>
+        <v>11.15176689078631</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -1455,43 +1455,43 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>21.59946480149246</v>
+        <v>24.30664584095041</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>10.12191498729602</v>
+        <v>17.77050664178401</v>
       </c>
       <c r="E24">
-        <v>13.73060799741336</v>
+        <v>26.331931724227</v>
       </c>
       <c r="F24">
-        <v>58.36311535140479</v>
+        <v>58.78989730288514</v>
       </c>
       <c r="G24">
-        <v>3.76595619115709</v>
+        <v>1.982388273153016</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>31.15848366141931</v>
+        <v>19.22136953700468</v>
       </c>
       <c r="J24">
-        <v>8.978333014207465</v>
+        <v>13.04912541001786</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>18.48648824960017</v>
+        <v>20.08622797848203</v>
       </c>
       <c r="M24">
-        <v>23.06829691265557</v>
+        <v>22.85654121618207</v>
       </c>
       <c r="N24">
-        <v>20.64213061227856</v>
+        <v>11.86490816037178</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -1502,43 +1502,43 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>21.1299602606051</v>
+        <v>21.85099542180945</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>9.507530010213609</v>
+        <v>15.69799498828181</v>
       </c>
       <c r="E25">
-        <v>12.61718298662012</v>
+        <v>23.4023757651487</v>
       </c>
       <c r="F25">
-        <v>57.79603886122604</v>
+        <v>53.69329184899659</v>
       </c>
       <c r="G25">
-        <v>3.777749450831784</v>
+        <v>2.024850720313133</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>31.3741643063242</v>
+        <v>19.30158180192836</v>
       </c>
       <c r="J25">
-        <v>8.538971513620213</v>
+        <v>11.80115047776394</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>18.19045214965039</v>
+        <v>17.85642577831129</v>
       </c>
       <c r="M25">
-        <v>22.79367647109045</v>
+        <v>20.3768928398419</v>
       </c>
       <c r="N25">
-        <v>20.79522167326294</v>
+        <v>12.60036207936009</v>
       </c>
       <c r="O25">
         <v>0</v>
